--- a/data/pca/factorExposure/factorExposure_2013-04-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-01.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-5.961238630398846e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001939100072344276</v>
+      </c>
+      <c r="C2">
+        <v>0.03313617091926907</v>
+      </c>
+      <c r="D2">
+        <v>-0.0004632890438962633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001873279194487305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005930574677810321</v>
+      </c>
+      <c r="C4">
+        <v>0.08628319574892183</v>
+      </c>
+      <c r="D4">
+        <v>0.07869572474582454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0006703861185925503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01343301989492315</v>
+      </c>
+      <c r="C6">
+        <v>0.1130703232097468</v>
+      </c>
+      <c r="D6">
+        <v>0.03002801136766735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002122495889985502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004688704279875116</v>
+      </c>
+      <c r="C7">
+        <v>0.05663788155234857</v>
+      </c>
+      <c r="D7">
+        <v>0.0303097393516195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0001557072951699913</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005616109389748659</v>
+      </c>
+      <c r="C8">
+        <v>0.03871821859065291</v>
+      </c>
+      <c r="D8">
+        <v>0.04030545057570542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003949477659631572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004032404677278808</v>
+      </c>
+      <c r="C9">
+        <v>0.07218731150315813</v>
+      </c>
+      <c r="D9">
+        <v>0.07018141797809729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.00436400191206382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005166637647136713</v>
+      </c>
+      <c r="C10">
+        <v>0.05864749332442545</v>
+      </c>
+      <c r="D10">
+        <v>-0.2047385892387705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003119753790548525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005272655125394894</v>
+      </c>
+      <c r="C11">
+        <v>0.08146589282104436</v>
+      </c>
+      <c r="D11">
+        <v>0.05862177728524551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0001895090551461555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003878365041728872</v>
+      </c>
+      <c r="C12">
+        <v>0.06507176928020357</v>
+      </c>
+      <c r="D12">
+        <v>0.04447616902432349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003432792171642361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008411215312181728</v>
+      </c>
+      <c r="C13">
+        <v>0.0671605751808072</v>
+      </c>
+      <c r="D13">
+        <v>0.06526844182089442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001431232542905628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001395193751324821</v>
+      </c>
+      <c r="C14">
+        <v>0.04629416290393606</v>
+      </c>
+      <c r="D14">
+        <v>0.008451156161052039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.00111834038325638</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005812173755349871</v>
+      </c>
+      <c r="C15">
+        <v>0.0422707898474407</v>
+      </c>
+      <c r="D15">
+        <v>0.03071631870629205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001316760879022187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.00486215651138425</v>
+      </c>
+      <c r="C16">
+        <v>0.06682264550300947</v>
+      </c>
+      <c r="D16">
+        <v>0.04446511143333705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-2.322546775918628e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008748731413840683</v>
+      </c>
+      <c r="C20">
+        <v>0.0682240858890493</v>
+      </c>
+      <c r="D20">
+        <v>0.04803442245144684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.0054291383213695</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009777422816220979</v>
+      </c>
+      <c r="C21">
+        <v>0.02336599280124348</v>
+      </c>
+      <c r="D21">
+        <v>0.03477402429748654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.0170044270081479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007004347625940953</v>
+      </c>
+      <c r="C22">
+        <v>0.09513308678545872</v>
+      </c>
+      <c r="D22">
+        <v>0.1012676903326234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01732688968176774</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006819709293353887</v>
+      </c>
+      <c r="C23">
+        <v>0.0960069450791303</v>
+      </c>
+      <c r="D23">
+        <v>0.1016373824326335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001946080017652691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004984214471187042</v>
+      </c>
+      <c r="C24">
+        <v>0.07612734919194269</v>
+      </c>
+      <c r="D24">
+        <v>0.05752584647863496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003844654012401134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002681428594558731</v>
+      </c>
+      <c r="C25">
+        <v>0.07904179976046083</v>
+      </c>
+      <c r="D25">
+        <v>0.06349687212699742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006109747146349263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003450187168274763</v>
+      </c>
+      <c r="C26">
+        <v>0.04240328713717464</v>
+      </c>
+      <c r="D26">
+        <v>0.02573551268318055</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005143253188223868</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001211901540985437</v>
+      </c>
+      <c r="C28">
+        <v>0.1062938067212985</v>
+      </c>
+      <c r="D28">
+        <v>-0.3190524339680829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001110685995991223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002986955184417999</v>
+      </c>
+      <c r="C29">
+        <v>0.04921508438641165</v>
+      </c>
+      <c r="D29">
+        <v>0.002413554812565134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003461868127384915</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008794967951674887</v>
+      </c>
+      <c r="C30">
+        <v>0.1454305320688976</v>
+      </c>
+      <c r="D30">
+        <v>0.09902470026315255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001473781594042616</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006028653272931161</v>
+      </c>
+      <c r="C31">
+        <v>0.04538955819897043</v>
+      </c>
+      <c r="D31">
+        <v>0.03176759912673039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005143896266577614</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003788741475803531</v>
+      </c>
+      <c r="C32">
+        <v>0.03973613765205628</v>
+      </c>
+      <c r="D32">
+        <v>0.02303404859690745</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003025902163259423</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.00783675131527346</v>
+      </c>
+      <c r="C33">
+        <v>0.08703015362557809</v>
+      </c>
+      <c r="D33">
+        <v>0.07095687047478684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004332029326469957</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003686409592531968</v>
+      </c>
+      <c r="C34">
+        <v>0.05883947799067481</v>
+      </c>
+      <c r="D34">
+        <v>0.04662297723127705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002586312902168673</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004730705441916229</v>
+      </c>
+      <c r="C35">
+        <v>0.04032496489199993</v>
+      </c>
+      <c r="D35">
+        <v>0.01211873606669144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004033658489184037</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001410164362433138</v>
+      </c>
+      <c r="C36">
+        <v>0.02524223777477251</v>
+      </c>
+      <c r="D36">
+        <v>0.02136821173892139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002363404801783063</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009466743888552374</v>
+      </c>
+      <c r="C38">
+        <v>0.03486506845260005</v>
+      </c>
+      <c r="D38">
+        <v>0.02037624678173111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.0128035535030064</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001086764223768249</v>
+      </c>
+      <c r="C39">
+        <v>0.1186762317885106</v>
+      </c>
+      <c r="D39">
+        <v>0.07147198694184599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009414861381241306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.001910249792025017</v>
+      </c>
+      <c r="C40">
+        <v>0.08877145938488978</v>
+      </c>
+      <c r="D40">
+        <v>0.009685765600177736</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004550220159197867</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007119392721487679</v>
+      </c>
+      <c r="C41">
+        <v>0.03821145856357541</v>
+      </c>
+      <c r="D41">
+        <v>0.03470031517563278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003315107121158776</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.00341426102398502</v>
+      </c>
+      <c r="C43">
+        <v>0.05148620935986315</v>
+      </c>
+      <c r="D43">
+        <v>0.0238010583632923</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.00258905568910041</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002989150505048839</v>
+      </c>
+      <c r="C44">
+        <v>0.1133857839946444</v>
+      </c>
+      <c r="D44">
+        <v>0.06895147169589243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001746626343634839</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002281352920946384</v>
+      </c>
+      <c r="C46">
+        <v>0.03618229984954144</v>
+      </c>
+      <c r="D46">
+        <v>0.02662080396302229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0005606703995309988</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002594996973382225</v>
+      </c>
+      <c r="C47">
+        <v>0.03749058351529308</v>
+      </c>
+      <c r="D47">
+        <v>0.02534433277530215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.00325105761235251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006312065565647851</v>
+      </c>
+      <c r="C48">
+        <v>0.02954200397435543</v>
+      </c>
+      <c r="D48">
+        <v>0.03192277198292069</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01390636156429233</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01447484178047847</v>
+      </c>
+      <c r="C49">
+        <v>0.1832929054011055</v>
+      </c>
+      <c r="D49">
+        <v>0.009524929872163284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001401723270150939</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003438491512195763</v>
+      </c>
+      <c r="C50">
+        <v>0.04395758078392236</v>
+      </c>
+      <c r="D50">
+        <v>0.0352373074234374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0003243434895500963</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004226317280091134</v>
+      </c>
+      <c r="C51">
+        <v>0.02499077858566212</v>
+      </c>
+      <c r="D51">
+        <v>0.02172334363112395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0007167196265810774</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02004012786304431</v>
+      </c>
+      <c r="C53">
+        <v>0.1691607704166195</v>
+      </c>
+      <c r="D53">
+        <v>0.03602934338082771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0007603665013767838</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008614074278929741</v>
+      </c>
+      <c r="C54">
+        <v>0.05678614538093957</v>
+      </c>
+      <c r="D54">
+        <v>0.04124412842014787</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003887507654030213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009147667788956385</v>
+      </c>
+      <c r="C55">
+        <v>0.1097746205637891</v>
+      </c>
+      <c r="D55">
+        <v>0.04468662346071557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003311685233325025</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01949813816554065</v>
+      </c>
+      <c r="C56">
+        <v>0.1758020850190921</v>
+      </c>
+      <c r="D56">
+        <v>0.03736892672048646</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007217840729553772</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01913739085119268</v>
+      </c>
+      <c r="C58">
+        <v>0.1073829116335254</v>
+      </c>
+      <c r="D58">
+        <v>0.05556551429304896</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006741340855102737</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.008779027347831357</v>
+      </c>
+      <c r="C59">
+        <v>0.1563827039544241</v>
+      </c>
+      <c r="D59">
+        <v>-0.304800289718665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004215164244981398</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02306340802150649</v>
+      </c>
+      <c r="C60">
+        <v>0.2236943851992422</v>
+      </c>
+      <c r="D60">
+        <v>0.02155415766416016</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01458619042125683</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002121596820653086</v>
+      </c>
+      <c r="C61">
+        <v>0.09666598679018573</v>
+      </c>
+      <c r="D61">
+        <v>0.05584324413745093</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1697094029072056</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1439915186051457</v>
+      </c>
+      <c r="C62">
+        <v>0.08880400953081269</v>
+      </c>
+      <c r="D62">
+        <v>0.04512885285322043</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001066392543240717</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006168710773636353</v>
+      </c>
+      <c r="C63">
+        <v>0.05757388080194803</v>
+      </c>
+      <c r="D63">
+        <v>0.02483494348023912</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005162254023578311</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01470399434049309</v>
+      </c>
+      <c r="C64">
+        <v>0.1058553301319798</v>
+      </c>
+      <c r="D64">
+        <v>0.05762544109813782</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002271733454317748</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01709066891202394</v>
+      </c>
+      <c r="C65">
+        <v>0.1207302478178876</v>
+      </c>
+      <c r="D65">
+        <v>0.01413868289184583</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007985731370163677</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01217906665371854</v>
+      </c>
+      <c r="C66">
+        <v>0.1608963883619823</v>
+      </c>
+      <c r="D66">
+        <v>0.1103962045423928</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003824432495346335</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01551455012546497</v>
+      </c>
+      <c r="C67">
+        <v>0.06571531757737444</v>
+      </c>
+      <c r="D67">
+        <v>0.02885435516862546</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006745211861746667</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0004105378842741625</v>
+      </c>
+      <c r="C68">
+        <v>0.08595132984432838</v>
+      </c>
+      <c r="D68">
+        <v>-0.251643639071745</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002917021410733496</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005832214078991362</v>
+      </c>
+      <c r="C69">
+        <v>0.0513915527502434</v>
+      </c>
+      <c r="D69">
+        <v>0.03758744001553968</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-4.280379154381007e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001795867409737032</v>
+      </c>
+      <c r="C70">
+        <v>0.002463568105514851</v>
+      </c>
+      <c r="D70">
+        <v>0.0006338410208577168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001400057844947023</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005667548292871581</v>
+      </c>
+      <c r="C71">
+        <v>0.09638667562336989</v>
+      </c>
+      <c r="D71">
+        <v>-0.2982426355960626</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005131874615085547</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01522128196612597</v>
+      </c>
+      <c r="C72">
+        <v>0.1493405290094271</v>
+      </c>
+      <c r="D72">
+        <v>0.02127969798950254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01226355129525821</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02894232317514877</v>
+      </c>
+      <c r="C73">
+        <v>0.276483719341621</v>
+      </c>
+      <c r="D73">
+        <v>0.04833900103495348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004809956808409073</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001237246848349215</v>
+      </c>
+      <c r="C74">
+        <v>0.1055445407681223</v>
+      </c>
+      <c r="D74">
+        <v>0.03645583633105542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.00274391060345059</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01055747605000027</v>
+      </c>
+      <c r="C75">
+        <v>0.1309295105118659</v>
+      </c>
+      <c r="D75">
+        <v>0.02386039496413565</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009360858083139705</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02104161222599906</v>
+      </c>
+      <c r="C76">
+        <v>0.1507546847085955</v>
+      </c>
+      <c r="D76">
+        <v>0.06375265691133103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-2.858441584115312e-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02397785038975139</v>
+      </c>
+      <c r="C77">
+        <v>0.1349748552833702</v>
+      </c>
+      <c r="D77">
+        <v>0.05633482647407409</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001693197518984656</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01408495795833171</v>
+      </c>
+      <c r="C78">
+        <v>0.09559298455584544</v>
+      </c>
+      <c r="D78">
+        <v>0.06768005339772942</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02450393352538558</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03681294733801838</v>
+      </c>
+      <c r="C79">
+        <v>0.1570440730345515</v>
+      </c>
+      <c r="D79">
+        <v>0.03207527601150814</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004921954266453358</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.0104494720856833</v>
+      </c>
+      <c r="C80">
+        <v>0.04309525996502834</v>
+      </c>
+      <c r="D80">
+        <v>0.0301072824784527</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0002893708238415484</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01456131368472178</v>
+      </c>
+      <c r="C81">
+        <v>0.1290422770789589</v>
+      </c>
+      <c r="D81">
+        <v>0.04140975222010268</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005678030792828859</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01936250268810643</v>
+      </c>
+      <c r="C82">
+        <v>0.1450068183708998</v>
+      </c>
+      <c r="D82">
+        <v>0.04123643521916816</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008654797531130068</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009952004761800677</v>
+      </c>
+      <c r="C83">
+        <v>0.05766873017482628</v>
+      </c>
+      <c r="D83">
+        <v>0.05349405233319566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01279190344546645</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01150825390446991</v>
+      </c>
+      <c r="C84">
+        <v>0.0377458655014869</v>
+      </c>
+      <c r="D84">
+        <v>-0.00990903780346046</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01561915748036713</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02762181886713206</v>
+      </c>
+      <c r="C85">
+        <v>0.1304987312235719</v>
+      </c>
+      <c r="D85">
+        <v>0.04456815360887414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001411568801470817</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005270440305781367</v>
+      </c>
+      <c r="C86">
+        <v>0.04872975064688308</v>
+      </c>
+      <c r="D86">
+        <v>0.02119152729815177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.005018385990200986</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01018960276719241</v>
+      </c>
+      <c r="C87">
+        <v>0.1342794081170934</v>
+      </c>
+      <c r="D87">
+        <v>0.06267180030488356</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01320022796160798</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003098214923112871</v>
+      </c>
+      <c r="C88">
+        <v>0.0679460863929298</v>
+      </c>
+      <c r="D88">
+        <v>0.009492310823587435</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01530982977038573</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002038034469038689</v>
+      </c>
+      <c r="C89">
+        <v>0.1438968328353573</v>
+      </c>
+      <c r="D89">
+        <v>-0.3541838172158909</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003064013164440116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006550631885426258</v>
+      </c>
+      <c r="C90">
+        <v>0.1197492923843344</v>
+      </c>
+      <c r="D90">
+        <v>-0.3229097489614137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0008207202954916604</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01003803888477276</v>
+      </c>
+      <c r="C91">
+        <v>0.1030574699697441</v>
+      </c>
+      <c r="D91">
+        <v>0.0219301700153648</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008810819230364962</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>9.781459822750594e-05</v>
+      </c>
+      <c r="C92">
+        <v>0.1325424446228382</v>
+      </c>
+      <c r="D92">
+        <v>-0.3345573399741792</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0007648425694628876</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004481210780190929</v>
+      </c>
+      <c r="C93">
+        <v>0.1034685181184612</v>
+      </c>
+      <c r="D93">
+        <v>-0.3166354157224091</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.003939705367180683</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02209635251637893</v>
+      </c>
+      <c r="C94">
+        <v>0.1539255442638525</v>
+      </c>
+      <c r="D94">
+        <v>0.0470724057959622</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004786452521733247</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01593863281700052</v>
+      </c>
+      <c r="C95">
+        <v>0.1279912401241629</v>
+      </c>
+      <c r="D95">
+        <v>0.06040536473344033</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.00177718837075728</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03389573782053664</v>
+      </c>
+      <c r="C97">
+        <v>0.1916917860547075</v>
+      </c>
+      <c r="D97">
+        <v>0.003460160921399841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003974351279412083</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03567986897337178</v>
+      </c>
+      <c r="C98">
+        <v>0.2494252703606299</v>
+      </c>
+      <c r="D98">
+        <v>0.0485385212116649</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9835321177791214</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9828124895791769</v>
+      </c>
+      <c r="C99">
+        <v>-0.1110843996525622</v>
+      </c>
+      <c r="D99">
+        <v>-0.02702401557266338</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001064072100512176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003031391927126094</v>
+      </c>
+      <c r="C101">
+        <v>0.04924508629144494</v>
+      </c>
+      <c r="D101">
+        <v>0.002879826979631734</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
